--- a/Documentations/PavlOS Function GET.xlsx
+++ b/Documentations/PavlOS Function GET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UE4 Projects\PavlOS_Reworked\Documentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7C4F29A-67F6-4685-AB93-9A265D9B1C09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73584F42-7C12-475B-81BB-B8C5F1735368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09BD92E1-CC0C-450E-BE4A-5A5EEC222CE7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <r>
       <t>if=</t>
@@ -76,6 +76,15 @@
       </rPr>
       <t>=@sys=notification='IT WORKS'!</t>
     </r>
+  </si>
+  <si>
+    <t>KOLIKRÁT TAM JE GET</t>
+  </si>
+  <si>
+    <t>JAKÝ INDEX</t>
+  </si>
+  <si>
+    <t>X*2-1</t>
   </si>
 </sst>
 </file>
@@ -446,13 +455,13 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="119.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -585,7 +594,9 @@
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -605,25 +616,28 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="1">
+      <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>4</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>5</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>6</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>7</v>
       </c>
       <c r="L8" s="1"/>
@@ -637,25 +651,28 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="1">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>5</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>7</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>9</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>11</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>13</v>
       </c>
       <c r="L9" s="1"/>
